--- a/期末專案/rawdata/實踐大學.xlsx
+++ b/期末專案/rawdata/實踐大學.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,6 +437,76 @@
           <t>採計科目</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>國文</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>英文</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>數A</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>數B</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>社會</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>自然</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>英聽</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>數甲</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>物理</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>化學</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>生物</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>歷史</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>地理</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>公民</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +524,26 @@
           <t>國文(1.00)、英文(2.00)、數B(1.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -471,6 +561,21 @@
           <t>國文(1.00)、英文(1.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +593,26 @@
           <t>國文(2.00)、英文(2.00)、數B(1.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -505,6 +630,21 @@
           <t>國文(1.00)、歷史(2.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -522,6 +662,31 @@
           <t>國文(2.00)、英文(2.00)、歷史(1.00)、地理(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +704,21 @@
           <t>國文(1.00)、英文(2.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -556,6 +736,21 @@
           <t>國文(1.00)、自然(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -573,6 +768,21 @@
           <t>國文(1.50)、英文(1.50)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -590,6 +800,21 @@
           <t>國文(1.00)、社會(1.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -607,6 +832,21 @@
           <t>國文(1.75)、數B(1.00)、公民(1.50)</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -624,6 +864,21 @@
           <t>國文(1.50)、英文(2.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -641,6 +896,21 @@
           <t>國文(1.25)、英文(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -658,6 +928,21 @@
           <t>國文(2.00)、英文(1.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -675,6 +960,21 @@
           <t>國文(2.00)、歷史(1.00)、公民(1.50)</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -692,6 +992,21 @@
           <t>國文(1.00)、英文(1.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -709,6 +1024,21 @@
           <t>國文(1.25)、英文(1.00)、公民(1.50)</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -726,6 +1056,21 @@
           <t>國文(1.50)、英文(1.50)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -743,6 +1088,21 @@
           <t>國文(2.00)、英文(1.50)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -760,6 +1120,21 @@
           <t>國文(1.00)、英文(2.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -777,6 +1152,21 @@
           <t>國文(1.00)、英文(1.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -794,6 +1184,21 @@
           <t>國文(1.00)、社會(1.50)、歷史(2.00)</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -811,6 +1216,21 @@
           <t>國文(2.00)、英文(1.00)、公民(1.50)</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -828,6 +1248,21 @@
           <t>國文(2.00)、社會(1.50)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -845,6 +1280,21 @@
           <t>國文(1.00)、英文(2.00)、公民(1.50)</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -862,6 +1312,21 @@
           <t>國文(2.00)、數B(1.50)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -879,6 +1344,21 @@
           <t>國文(1.25)、英文(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -896,6 +1376,21 @@
           <t>國文(1.00)、英文(1.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -913,6 +1408,21 @@
           <t>國文(1.25)、數B(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -930,6 +1440,21 @@
           <t>國文(1.00)、社會(1.50)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -947,6 +1472,21 @@
           <t>國文(2.00)、數B(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -964,6 +1504,21 @@
           <t>國文(1.25)、數B(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -981,6 +1536,21 @@
           <t>國文(2.00)、自然(1.50)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -998,6 +1568,21 @@
           <t>國文(2.00)、數B(1.00)、公民(1.50)</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1015,6 +1600,21 @@
           <t>國文(1.00)、社會(1.50)、地理(2.00)</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1032,6 +1632,21 @@
           <t>國文(2.00)、英文(1.50)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1049,6 +1664,21 @@
           <t>國文(1.00)、自然(1.00)、物理(1.00)</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1066,6 +1696,21 @@
           <t>國文(1.00)、社會(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1083,6 +1728,21 @@
           <t>國文(1.00)、社會(1.00)、公民(1.25)</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1100,6 +1760,21 @@
           <t>國文(1.50)、英文(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1117,6 +1792,21 @@
           <t>國文(1.00)、英文(2.00)、公民(1.50)</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1134,6 +1824,21 @@
           <t>國文(1.00)、英文(2.00)、歷史(1.50)</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1151,6 +1856,21 @@
           <t>國文(1.00)、英文(2.00)、地理(1.50)</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1168,6 +1888,21 @@
           <t>國文(1.50)、英文(2.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1185,6 +1920,21 @@
           <t>國文(1.00)、英文(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1200,6 +1950,21 @@
       <c r="C46" t="inlineStr">
         <is>
           <t>國文(1.00)、英文(1.00)、歷史(1.00)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>1.00</t>
         </is>
       </c>
     </row>
